--- a/input/fsh/scripts/pacio-adi-server.xlsx
+++ b/input/fsh/scripts/pacio-adi-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cspears/dev/fhir/fsh/PACIO/advance-directives-fsh/input/fsh/scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cspears/dev/fhir/fsh/PACIO/pacio-adi/input/fsh/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D83060-ED1D-C648-9EA7-742D2E1544DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7297B99-2D31-1744-B866-A2D72C6F5665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="-7100" windowWidth="51200" windowHeight="28300" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38260" yWindow="3240" windowWidth="51200" windowHeight="28300" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -33,7 +33,6 @@
     <definedName name="common" localSheetId="9">Sheet1!$A$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -574,10 +573,6 @@
 1. Support xml source formats for all ADI interactions.</t>
   </si>
   <si>
-    <t>1. See the [Guidance](security.html) section for requirements and recommendations.
-1. A server **SHALL** reject any unauthorized requests by returning an 'HTTP 401' unauthorized response code.</t>
-  </si>
-  <si>
     <t>DocumentReference</t>
   </si>
   <si>
@@ -1803,6 +1798,10 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/SearchParameter/us-core-race</t>
+  </si>
+  <si>
+    <t>1. See the [Guidance](security_privacy_consent.html) section for requirements and recommendations.
+1. A server **SHALL** reject any unauthorized requests by returning an 'HTTP 401' unauthorized response code.</t>
   </si>
 </sst>
 </file>
@@ -2462,7 +2461,7 @@
         <v>110</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2534,7 +2533,7 @@
         <v>126</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -2560,7 +2559,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -2582,7 +2581,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -2599,7 +2598,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -2616,7 +2615,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -2633,7 +2632,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
@@ -2650,7 +2649,7 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
@@ -2667,7 +2666,7 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
@@ -2728,7 +2727,7 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
@@ -2775,7 +2774,7 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="42" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
@@ -2822,7 +2821,7 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
@@ -2869,7 +2868,7 @@
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="42" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
@@ -2916,7 +2915,7 @@
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="42" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
@@ -3113,7 +3112,7 @@
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
@@ -3133,7 +3132,7 @@
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
@@ -3174,7 +3173,7 @@
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
@@ -3185,7 +3184,7 @@
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
@@ -3202,7 +3201,7 @@
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
@@ -3331,7 +3330,7 @@
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="42" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
@@ -3375,7 +3374,7 @@
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="42" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
@@ -3540,7 +3539,7 @@
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
@@ -3560,7 +3559,7 @@
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
@@ -3854,7 +3853,7 @@
     </row>
     <row r="407" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="41" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="408" spans="1:1" ht="16" x14ac:dyDescent="0.2">
@@ -3869,7 +3868,7 @@
     </row>
     <row r="410" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="40" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="411" spans="1:1" ht="16" x14ac:dyDescent="0.2">
@@ -3879,7 +3878,7 @@
     </row>
     <row r="412" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A412" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="413" spans="1:1" ht="16" x14ac:dyDescent="0.2">
@@ -3889,7 +3888,7 @@
     </row>
     <row r="414" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="415" spans="1:1" ht="16" x14ac:dyDescent="0.2">
@@ -3899,6 +3898,35 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A393:A406"/>
+    <mergeCell ref="A372:A378"/>
+    <mergeCell ref="A379:A392"/>
+    <mergeCell ref="A355:A360"/>
+    <mergeCell ref="A361:A371"/>
+    <mergeCell ref="A335:A349"/>
+    <mergeCell ref="A350:A354"/>
+    <mergeCell ref="A315:A319"/>
+    <mergeCell ref="A320:A334"/>
+    <mergeCell ref="A276:A308"/>
+    <mergeCell ref="A309:A314"/>
+    <mergeCell ref="A256:A260"/>
+    <mergeCell ref="A261:A275"/>
+    <mergeCell ref="A235:A241"/>
+    <mergeCell ref="A242:A255"/>
+    <mergeCell ref="A201:A203"/>
+    <mergeCell ref="A204:A234"/>
+    <mergeCell ref="A193:A195"/>
+    <mergeCell ref="A196:A200"/>
+    <mergeCell ref="A174:A179"/>
+    <mergeCell ref="A180:A192"/>
+    <mergeCell ref="A141:A158"/>
+    <mergeCell ref="A159:A173"/>
+    <mergeCell ref="A111:A125"/>
+    <mergeCell ref="A126:A140"/>
+    <mergeCell ref="A81:A95"/>
+    <mergeCell ref="A96:A110"/>
+    <mergeCell ref="A51:A65"/>
+    <mergeCell ref="A66:A80"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A32:A35"/>
@@ -3907,35 +3935,6 @@
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A111:A125"/>
-    <mergeCell ref="A126:A140"/>
-    <mergeCell ref="A81:A95"/>
-    <mergeCell ref="A96:A110"/>
-    <mergeCell ref="A51:A65"/>
-    <mergeCell ref="A66:A80"/>
-    <mergeCell ref="A193:A195"/>
-    <mergeCell ref="A196:A200"/>
-    <mergeCell ref="A174:A179"/>
-    <mergeCell ref="A180:A192"/>
-    <mergeCell ref="A141:A158"/>
-    <mergeCell ref="A159:A173"/>
-    <mergeCell ref="A256:A260"/>
-    <mergeCell ref="A261:A275"/>
-    <mergeCell ref="A235:A241"/>
-    <mergeCell ref="A242:A255"/>
-    <mergeCell ref="A201:A203"/>
-    <mergeCell ref="A204:A234"/>
-    <mergeCell ref="A335:A349"/>
-    <mergeCell ref="A350:A354"/>
-    <mergeCell ref="A315:A319"/>
-    <mergeCell ref="A320:A334"/>
-    <mergeCell ref="A276:A308"/>
-    <mergeCell ref="A309:A314"/>
-    <mergeCell ref="A393:A406"/>
-    <mergeCell ref="A372:A378"/>
-    <mergeCell ref="A379:A392"/>
-    <mergeCell ref="A355:A360"/>
-    <mergeCell ref="A361:A371"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" location="std-process" tooltip="Trial Use Content" display="https://www.hl7.org/fhir/versions.html - std-process" xr:uid="{465DA95D-AD77-F244-B670-6FEE52020119}"/>
@@ -4010,7 +4009,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -4027,7 +4026,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -4044,7 +4043,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -4061,7 +4060,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
@@ -4078,7 +4077,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
@@ -4095,7 +4094,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
@@ -4156,7 +4155,7 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
@@ -4203,7 +4202,7 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="42" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
@@ -4250,7 +4249,7 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
@@ -4297,7 +4296,7 @@
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="42" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
@@ -4344,7 +4343,7 @@
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="42" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
@@ -4541,7 +4540,7 @@
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
@@ -4561,7 +4560,7 @@
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
@@ -4602,7 +4601,7 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
@@ -4613,7 +4612,7 @@
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
@@ -4630,7 +4629,7 @@
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
@@ -4759,7 +4758,7 @@
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="42" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
@@ -4803,7 +4802,7 @@
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="42" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
@@ -4968,7 +4967,7 @@
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
@@ -4988,7 +4987,7 @@
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
@@ -5282,12 +5281,25 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A392:A405"/>
+    <mergeCell ref="A334:A348"/>
+    <mergeCell ref="A349:A353"/>
+    <mergeCell ref="A354:A359"/>
+    <mergeCell ref="A360:A370"/>
+    <mergeCell ref="A371:A377"/>
+    <mergeCell ref="A378:A391"/>
+    <mergeCell ref="A319:A333"/>
+    <mergeCell ref="A192:A194"/>
+    <mergeCell ref="A195:A199"/>
+    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="A203:A233"/>
+    <mergeCell ref="A234:A240"/>
+    <mergeCell ref="A241:A254"/>
+    <mergeCell ref="A255:A259"/>
+    <mergeCell ref="A260:A274"/>
+    <mergeCell ref="A275:A307"/>
+    <mergeCell ref="A308:A313"/>
+    <mergeCell ref="A314:A318"/>
     <mergeCell ref="A179:A191"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="A35:A49"/>
@@ -5300,25 +5312,12 @@
     <mergeCell ref="A140:A157"/>
     <mergeCell ref="A158:A172"/>
     <mergeCell ref="A173:A178"/>
-    <mergeCell ref="A319:A333"/>
-    <mergeCell ref="A192:A194"/>
-    <mergeCell ref="A195:A199"/>
-    <mergeCell ref="A200:A202"/>
-    <mergeCell ref="A203:A233"/>
-    <mergeCell ref="A234:A240"/>
-    <mergeCell ref="A241:A254"/>
-    <mergeCell ref="A255:A259"/>
-    <mergeCell ref="A260:A274"/>
-    <mergeCell ref="A275:A307"/>
-    <mergeCell ref="A308:A313"/>
-    <mergeCell ref="A314:A318"/>
-    <mergeCell ref="A392:A405"/>
-    <mergeCell ref="A334:A348"/>
-    <mergeCell ref="A349:A353"/>
-    <mergeCell ref="A354:A359"/>
-    <mergeCell ref="A360:A370"/>
-    <mergeCell ref="A371:A377"/>
-    <mergeCell ref="A378:A391"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location="std-process" tooltip="Trial Use Content" display="https://www.hl7.org/fhir/versions.html - std-process" xr:uid="{01C2DB07-C72E-D44C-A1C1-7B2AAA3F66AF}"/>
@@ -5856,7 +5855,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5943,7 +5942,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>144</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -6012,10 +6011,10 @@
     </row>
     <row r="2" spans="1:6" s="26" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>183</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>184</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>13</v>
@@ -6029,16 +6028,16 @@
     </row>
     <row r="3" spans="1:6" s="26" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>146</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>147</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E3" s="1" t="b">
         <v>1</v>
@@ -6046,16 +6045,16 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>134</v>
@@ -6063,16 +6062,16 @@
     </row>
     <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -6081,16 +6080,16 @@
     </row>
     <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" s="1" t="b">
         <v>1</v>
@@ -6099,16 +6098,16 @@
     </row>
     <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E7" s="1" t="b">
         <v>1</v>
@@ -6117,16 +6116,16 @@
     </row>
     <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E8" s="1" t="b">
         <v>1</v>
@@ -6135,16 +6134,16 @@
     </row>
     <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E9" s="1" t="b">
         <v>1</v>
@@ -6153,16 +6152,16 @@
     </row>
     <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E10" s="1" t="b">
         <v>1</v>
@@ -6171,16 +6170,16 @@
     </row>
     <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E11" s="1" t="b">
         <v>1</v>
@@ -6189,16 +6188,16 @@
     </row>
     <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E12" s="1" t="b">
         <v>1</v>
@@ -6206,16 +6205,16 @@
     </row>
     <row r="13" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E13" s="1" t="b">
         <v>1</v>
@@ -6223,16 +6222,16 @@
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E14" s="1" t="b">
         <v>1</v>
@@ -6240,16 +6239,16 @@
     </row>
     <row r="15" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E15" s="1" t="b">
         <v>1</v>
@@ -6257,16 +6256,16 @@
     </row>
     <row r="16" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E16" s="1" t="b">
         <v>1</v>
@@ -6274,16 +6273,16 @@
     </row>
     <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E17" s="1" t="b">
         <v>1</v>
@@ -6427,7 +6426,7 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -6446,7 +6445,7 @@
     </row>
     <row r="4" spans="1:24" s="1" customFormat="1" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -6465,7 +6464,7 @@
     </row>
     <row r="5" spans="1:24" s="1" customFormat="1" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -6484,7 +6483,7 @@
     </row>
     <row r="6" spans="1:24" s="1" customFormat="1" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -6503,7 +6502,7 @@
     </row>
     <row r="7" spans="1:24" s="1" customFormat="1" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
@@ -6522,7 +6521,7 @@
     </row>
     <row r="8" spans="1:24" s="1" customFormat="1" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -6541,7 +6540,7 @@
     </row>
     <row r="9" spans="1:24" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
@@ -6555,7 +6554,7 @@
     </row>
     <row r="10" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
@@ -6672,31 +6671,31 @@
         <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" t="s">
         <v>188</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>189</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>190</v>
-      </c>
-      <c r="K1" t="s">
-        <v>191</v>
       </c>
       <c r="L1" t="s">
         <v>88</v>
@@ -7016,7 +7015,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD33" sqref="AD33"/>
+      <selection pane="bottomRight" activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7064,7 +7063,7 @@
         <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>38</v>
@@ -7142,7 +7141,7 @@
         <v>76</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
@@ -7503,13 +7502,13 @@
         <v>1</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H9" t="s">
         <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J9" t="s">
         <v>58</v>
@@ -7529,10 +7528,10 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="10"/>
       <c r="AC9" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AD9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:40" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -7543,7 +7542,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
@@ -7553,19 +7552,19 @@
         <v>1</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K10" s="1" t="str">
-        <f t="shared" ref="K10:K32" si="3">B10&amp;"."&amp;C10</f>
+        <f t="shared" ref="K10:K28" si="3">B10&amp;"."&amp;C10</f>
         <v>Patient.active</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -7616,7 +7615,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>30</v>
@@ -7625,13 +7624,13 @@
         <v>1</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>61</v>
@@ -7662,7 +7661,7 @@
       <c r="AA11" s="33"/>
       <c r="AB11" s="34"/>
       <c r="AC11" s="9" t="str">
-        <f t="shared" ref="AC11:AC32" si="4">"SearchParameter-padi-"&amp;LOWER((B11)&amp;"-"&amp;C11&amp;".html")</f>
+        <f t="shared" ref="AC11:AC30" si="4">"SearchParameter-padi-"&amp;LOWER((B11)&amp;"-"&amp;C11&amp;".html")</f>
         <v>SearchParameter-padi-patient-address.html</v>
       </c>
       <c r="AD11" s="9"/>
@@ -7685,10 +7684,10 @@
         <v>22</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>30</v>
@@ -7697,13 +7696,13 @@
         <v>1</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>61</v>
@@ -7757,10 +7756,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>30</v>
@@ -7769,13 +7768,13 @@
         <v>1</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>61</v>
@@ -7829,10 +7828,10 @@
         <v>22</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>30</v>
@@ -7841,13 +7840,13 @@
         <v>1</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>61</v>
@@ -7901,10 +7900,10 @@
         <v>22</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>30</v>
@@ -7913,13 +7912,13 @@
         <v>1</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>61</v>
@@ -7973,10 +7972,10 @@
         <v>22</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>30</v>
@@ -7985,13 +7984,13 @@
         <v>1</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>58</v>
@@ -8045,10 +8044,10 @@
         <v>22</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>13</v>
@@ -8057,13 +8056,13 @@
         <v>1</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>64</v>
@@ -8093,11 +8092,11 @@
       <c r="Z17" s="32"/>
       <c r="AA17" s="33"/>
       <c r="AB17" s="34"/>
-      <c r="AC17" s="9" t="s">
-        <v>537</v>
+      <c r="AC17" s="12" t="s">
+        <v>536</v>
       </c>
       <c r="AD17" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AE17" s="9"/>
       <c r="AF17" s="9"/>
@@ -8118,7 +8117,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
@@ -8128,19 +8127,19 @@
         <v>1</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>64</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>57</v>
@@ -8187,7 +8186,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
@@ -8197,19 +8196,19 @@
         <v>1</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>57</v>
@@ -8256,10 +8255,10 @@
         <v>22</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>63</v>
@@ -8268,19 +8267,19 @@
         <v>1</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>57</v>
@@ -8327,10 +8326,10 @@
         <v>22</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>13</v>
@@ -8339,13 +8338,13 @@
         <v>1</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>61</v>
@@ -8376,10 +8375,10 @@
       <c r="AA21" s="33"/>
       <c r="AB21" s="34"/>
       <c r="AC21" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AD21" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AE21" s="9"/>
       <c r="AF21" s="9"/>
@@ -8400,10 +8399,10 @@
         <v>22</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>13</v>
@@ -8412,13 +8411,13 @@
         <v>1</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>58</v>
@@ -8449,10 +8448,10 @@
       <c r="AA22" s="33"/>
       <c r="AB22" s="34"/>
       <c r="AC22" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AD22" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AE22" s="9"/>
       <c r="AF22" s="9"/>
@@ -8473,7 +8472,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9" t="s">
@@ -8483,19 +8482,19 @@
         <v>1</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>69</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>57</v>
@@ -8542,10 +8541,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>13</v>
@@ -8554,13 +8553,13 @@
         <v>1</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>61</v>
@@ -8591,10 +8590,10 @@
       <c r="AA24" s="33"/>
       <c r="AB24" s="34"/>
       <c r="AC24" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AD24" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AE24" s="9"/>
       <c r="AF24" s="9"/>
@@ -8618,7 +8617,7 @@
         <v>129</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>13</v>
@@ -8627,13 +8626,13 @@
         <v>1</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>58</v>
@@ -8664,10 +8663,10 @@
       <c r="AA25" s="33"/>
       <c r="AB25" s="34"/>
       <c r="AC25" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AD25" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AE25" s="9"/>
       <c r="AF25" s="9"/>
@@ -8688,7 +8687,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
@@ -8698,19 +8697,19 @@
         <v>1</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>57</v>
@@ -8757,7 +8756,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
@@ -8767,19 +8766,19 @@
         <v>1</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J27" s="9" t="s">
         <v>69</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>57</v>
@@ -8836,13 +8835,13 @@
         <v>1</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>61</v>
@@ -8873,10 +8872,10 @@
       <c r="AA28" s="33"/>
       <c r="AB28" s="34"/>
       <c r="AC28" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AD28" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AE28" s="9"/>
       <c r="AF28" s="9"/>
@@ -8897,7 +8896,7 @@
         <v>22</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
@@ -8907,19 +8906,19 @@
         <v>1</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J29" s="9" t="s">
         <v>69</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>57</v>
@@ -8966,10 +8965,10 @@
         <v>22</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>63</v>
@@ -8978,19 +8977,19 @@
         <v>1</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>57</v>
@@ -9037,10 +9036,10 @@
         <v>22</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>30</v>
@@ -9049,13 +9048,13 @@
         <v>1</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J31" s="9" t="s">
         <v>61</v>
@@ -9112,7 +9111,7 @@
         <v>67</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>63</v>
@@ -9121,19 +9120,19 @@
         <v>1</v>
       </c>
       <c r="G32" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L32" s="9" t="s">
         <v>57</v>
@@ -9152,7 +9151,7 @@
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9" t="str">
-        <f t="shared" ref="AC32:AC34" si="5">"SearchParameter-padi-"&amp;LOWER((B32)&amp;"-"&amp;C32&amp;".html")</f>
+        <f t="shared" ref="AC32" si="5">"SearchParameter-padi-"&amp;LOWER((B32)&amp;"-"&amp;C32&amp;".html")</f>
         <v>SearchParameter-padi-patient-telecom.html</v>
       </c>
       <c r="AD32" s="9"/>
@@ -9175,10 +9174,10 @@
         <v>22</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>30</v>
@@ -9187,19 +9186,19 @@
         <v>1</v>
       </c>
       <c r="G33" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J33" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L33" s="9" t="s">
         <v>57</v>
@@ -9218,10 +9217,10 @@
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
       <c r="AC33" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AD33" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AE33" s="9"/>
       <c r="AF33" s="9"/>
@@ -9242,10 +9241,10 @@
         <v>22</v>
       </c>
       <c r="C34" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>544</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>545</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>30</v>
@@ -9254,19 +9253,19 @@
         <v>1</v>
       </c>
       <c r="G34" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J34" s="9" t="s">
         <v>58</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L34" s="9" t="s">
         <v>57</v>
@@ -9285,10 +9284,10 @@
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
       <c r="AC34" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="AD34" s="9" t="s">
         <v>549</v>
-      </c>
-      <c r="AD34" s="9" t="s">
-        <v>550</v>
       </c>
       <c r="AE34" s="9"/>
       <c r="AF34" s="9"/>
@@ -9306,7 +9305,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>128</v>
@@ -9319,19 +9318,19 @@
         <v>1</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>57</v>
@@ -9350,10 +9349,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="1" t="s">
@@ -9363,19 +9362,19 @@
         <v>1</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>57</v>
@@ -9394,10 +9393,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="1" t="s">
@@ -9407,19 +9406,19 @@
         <v>1</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>57</v>
@@ -9438,7 +9437,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>73</v>
@@ -9451,19 +9450,19 @@
         <v>1</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>57</v>
@@ -9482,10 +9481,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="1" t="s">
@@ -9495,19 +9494,19 @@
         <v>1</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>57</v>
@@ -9526,10 +9525,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="1" t="s">
@@ -9539,19 +9538,19 @@
         <v>1</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J40" t="s">
         <v>69</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>57</v>
@@ -9569,13 +9568,13 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>13</v>
@@ -9584,19 +9583,19 @@
         <v>1</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J41" t="s">
         <v>64</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>57</v>
@@ -9614,13 +9613,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>30</v>
@@ -9629,19 +9628,19 @@
         <v>1</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J42" t="s">
         <v>61</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>57</v>
@@ -9659,13 +9658,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>30</v>
@@ -9674,19 +9673,19 @@
         <v>1</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J43" t="s">
         <v>69</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>57</v>
@@ -9704,10 +9703,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>30</v>
@@ -9716,19 +9715,19 @@
         <v>1</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J44" t="s">
         <v>58</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>57</v>
@@ -9746,7 +9745,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>130</v>
@@ -9758,19 +9757,19 @@
         <v>1</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J45" t="s">
         <v>58</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>57</v>
@@ -9788,10 +9787,10 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>63</v>
@@ -9800,19 +9799,19 @@
         <v>1</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J46" t="s">
         <v>58</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>57</v>
@@ -9830,13 +9829,13 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>13</v>
@@ -9845,19 +9844,19 @@
         <v>1</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J47" t="s">
         <v>58</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>57</v>
@@ -9875,10 +9874,10 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>30</v>
@@ -9887,19 +9886,19 @@
         <v>1</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J48" t="s">
         <v>58</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>57</v>
@@ -9917,10 +9916,10 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>30</v>
@@ -9929,19 +9928,19 @@
         <v>1</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J49" t="s">
         <v>59</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>57</v>
@@ -9959,13 +9958,13 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>13</v>
@@ -9974,19 +9973,19 @@
         <v>1</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J50" t="s">
         <v>69</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>57</v>
@@ -10004,10 +10003,10 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>13</v>
@@ -10016,19 +10015,19 @@
         <v>1</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J51" t="s">
         <v>64</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>57</v>
@@ -10046,10 +10045,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>30</v>
@@ -10058,19 +10057,19 @@
         <v>1</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J52" t="s">
         <v>69</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>57</v>
@@ -10088,10 +10087,10 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>30</v>
@@ -10100,19 +10099,19 @@
         <v>1</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J53" t="s">
         <v>69</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>57</v>
@@ -10130,10 +10129,10 @@
         <v>46</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>30</v>
@@ -10142,19 +10141,19 @@
         <v>1</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J54" t="s">
         <v>58</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>57</v>
@@ -10172,10 +10171,10 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>30</v>
@@ -10184,19 +10183,19 @@
         <v>1</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>57</v>
@@ -10214,10 +10213,10 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>30</v>
@@ -10226,19 +10225,19 @@
         <v>1</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J56" t="s">
         <v>58</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>57</v>
@@ -10256,10 +10255,10 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>30</v>
@@ -10268,19 +10267,19 @@
         <v>1</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J57" t="s">
         <v>58</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>57</v>
@@ -10298,13 +10297,13 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>13</v>
@@ -10313,19 +10312,19 @@
         <v>1</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J58" t="s">
         <v>58</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>57</v>
@@ -10343,10 +10342,10 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>30</v>
@@ -10355,19 +10354,19 @@
         <v>1</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J59" t="s">
         <v>69</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>57</v>
@@ -10385,13 +10384,13 @@
         <v>52</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>13</v>
@@ -10400,19 +10399,19 @@
         <v>1</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J60" t="s">
         <v>58</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>57</v>
@@ -10430,7 +10429,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>128</v>
@@ -10442,19 +10441,19 @@
         <v>1</v>
       </c>
       <c r="G61" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J61" t="s">
         <v>58</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>57</v>
@@ -10472,10 +10471,10 @@
         <v>54</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>63</v>
@@ -10484,19 +10483,19 @@
         <v>1</v>
       </c>
       <c r="G62" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>57</v>
@@ -10515,10 +10514,10 @@
         <v>55</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>63</v>
@@ -10527,19 +10526,19 @@
         <v>1</v>
       </c>
       <c r="G63" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>57</v>
@@ -10558,7 +10557,7 @@
         <v>56</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>73</v>
@@ -10570,19 +10569,19 @@
         <v>1</v>
       </c>
       <c r="G64" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>57</v>
@@ -10601,10 +10600,10 @@
         <v>57</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>30</v>
@@ -10613,19 +10612,19 @@
         <v>1</v>
       </c>
       <c r="G65" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>57</v>
@@ -10644,13 +10643,13 @@
         <v>58</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>30</v>
@@ -10659,19 +10658,19 @@
         <v>1</v>
       </c>
       <c r="G66" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>57</v>
@@ -10690,13 +10689,13 @@
         <v>59</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>13</v>
@@ -10705,19 +10704,19 @@
         <v>1</v>
       </c>
       <c r="G67" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>57</v>
@@ -10736,13 +10735,13 @@
         <v>60</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>30</v>
@@ -10751,19 +10750,19 @@
         <v>1</v>
       </c>
       <c r="G68" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>57</v>
@@ -10782,10 +10781,10 @@
         <v>61</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>30</v>
@@ -10794,19 +10793,19 @@
         <v>1</v>
       </c>
       <c r="G69" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>57</v>
@@ -10825,13 +10824,13 @@
         <v>62</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>13</v>
@@ -10840,19 +10839,19 @@
         <v>1</v>
       </c>
       <c r="G70" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>57</v>
@@ -10871,13 +10870,13 @@
         <v>63</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>13</v>
@@ -10886,19 +10885,19 @@
         <v>1</v>
       </c>
       <c r="G71" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>57</v>
@@ -10917,10 +10916,10 @@
         <v>64</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>13</v>
@@ -10929,19 +10928,19 @@
         <v>1</v>
       </c>
       <c r="G72" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>57</v>
@@ -10960,10 +10959,10 @@
         <v>65</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>30</v>
@@ -10972,19 +10971,19 @@
         <v>1</v>
       </c>
       <c r="G73" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>57</v>
@@ -11003,10 +11002,10 @@
         <v>66</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>30</v>
@@ -11015,19 +11014,19 @@
         <v>1</v>
       </c>
       <c r="G74" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>57</v>
@@ -11046,10 +11045,10 @@
         <v>67</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>30</v>
@@ -11058,19 +11057,19 @@
         <v>1</v>
       </c>
       <c r="G75" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>57</v>
@@ -11089,13 +11088,13 @@
         <v>68</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>30</v>
@@ -11104,19 +11103,19 @@
         <v>1</v>
       </c>
       <c r="G76" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>57</v>
@@ -11135,10 +11134,10 @@
         <v>69</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>30</v>
@@ -11147,19 +11146,19 @@
         <v>1</v>
       </c>
       <c r="G77" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>57</v>
@@ -11178,13 +11177,13 @@
         <v>70</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>30</v>
@@ -11193,19 +11192,19 @@
         <v>1</v>
       </c>
       <c r="G78" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>57</v>
@@ -11224,13 +11223,13 @@
         <v>71</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>13</v>
@@ -11239,19 +11238,19 @@
         <v>1</v>
       </c>
       <c r="G79" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J79" t="s">
         <v>58</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>57</v>
@@ -11269,7 +11268,7 @@
         <v>72</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>128</v>
@@ -11281,19 +11280,19 @@
         <v>1</v>
       </c>
       <c r="G80" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>57</v>
@@ -11312,10 +11311,10 @@
         <v>73</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>30</v>
@@ -11324,19 +11323,19 @@
         <v>1</v>
       </c>
       <c r="G81" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>57</v>
@@ -11355,7 +11354,7 @@
         <v>74</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>73</v>
@@ -11367,19 +11366,19 @@
         <v>1</v>
       </c>
       <c r="G82" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>57</v>
@@ -11398,13 +11397,13 @@
         <v>75</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>13</v>
@@ -11413,19 +11412,19 @@
         <v>1</v>
       </c>
       <c r="G83" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>57</v>
@@ -11444,10 +11443,10 @@
         <v>76</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>30</v>
@@ -11456,19 +11455,19 @@
         <v>1</v>
       </c>
       <c r="G84" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>57</v>
@@ -11487,10 +11486,10 @@
         <v>77</v>
       </c>
       <c r="B85" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>30</v>
@@ -11499,19 +11498,19 @@
         <v>1</v>
       </c>
       <c r="G85" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>57</v>
@@ -11530,10 +11529,10 @@
         <v>78</v>
       </c>
       <c r="B86" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>30</v>
@@ -11542,19 +11541,19 @@
         <v>1</v>
       </c>
       <c r="G86" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>57</v>
@@ -11573,10 +11572,10 @@
         <v>79</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>30</v>
@@ -11585,19 +11584,19 @@
         <v>1</v>
       </c>
       <c r="G87" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>57</v>
@@ -11616,10 +11615,10 @@
         <v>80</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>30</v>
@@ -11628,19 +11627,19 @@
         <v>1</v>
       </c>
       <c r="G88" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>57</v>
@@ -11659,10 +11658,10 @@
         <v>81</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>30</v>
@@ -11671,19 +11670,19 @@
         <v>1</v>
       </c>
       <c r="G89" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>57</v>
@@ -11702,10 +11701,10 @@
         <v>82</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>30</v>
@@ -11714,19 +11713,19 @@
         <v>1</v>
       </c>
       <c r="G90" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>57</v>
@@ -11745,10 +11744,10 @@
         <v>83</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>30</v>
@@ -11757,19 +11756,19 @@
         <v>1</v>
       </c>
       <c r="G91" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>57</v>
@@ -11788,10 +11787,10 @@
         <v>84</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>30</v>
@@ -11800,19 +11799,19 @@
         <v>1</v>
       </c>
       <c r="G92" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>57</v>
@@ -11831,10 +11830,10 @@
         <v>85</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>30</v>
@@ -11843,19 +11842,19 @@
         <v>1</v>
       </c>
       <c r="G93" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="J93" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H93" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="K93" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>57</v>
@@ -11874,10 +11873,10 @@
         <v>86</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>30</v>
@@ -11886,19 +11885,19 @@
         <v>1</v>
       </c>
       <c r="G94" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>57</v>
@@ -11917,10 +11916,10 @@
         <v>87</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>30</v>
@@ -11929,19 +11928,19 @@
         <v>1</v>
       </c>
       <c r="G95" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>57</v>
@@ -11960,10 +11959,10 @@
         <v>88</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>30</v>
@@ -11972,19 +11971,19 @@
         <v>1</v>
       </c>
       <c r="G96" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>57</v>
@@ -12003,10 +12002,10 @@
         <v>89</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>30</v>
@@ -12015,19 +12014,19 @@
         <v>1</v>
       </c>
       <c r="G97" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>57</v>
@@ -12046,10 +12045,10 @@
         <v>90</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>30</v>
@@ -12058,19 +12057,19 @@
         <v>1</v>
       </c>
       <c r="G98" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L98" s="1" t="s">
         <v>57</v>
@@ -12089,10 +12088,10 @@
         <v>91</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>30</v>
@@ -12101,19 +12100,19 @@
         <v>1</v>
       </c>
       <c r="G99" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="J99" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H99" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="K99" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>57</v>
@@ -12132,10 +12131,10 @@
         <v>92</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>30</v>
@@ -12144,19 +12143,19 @@
         <v>1</v>
       </c>
       <c r="G100" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L100" s="1" t="s">
         <v>57</v>
@@ -12175,13 +12174,13 @@
         <v>93</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>30</v>
@@ -12190,19 +12189,19 @@
         <v>1</v>
       </c>
       <c r="G101" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>57</v>
@@ -12221,10 +12220,10 @@
         <v>94</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>30</v>
@@ -12233,19 +12232,19 @@
         <v>1</v>
       </c>
       <c r="G102" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>57</v>
@@ -12264,10 +12263,10 @@
         <v>95</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>30</v>
@@ -12276,19 +12275,19 @@
         <v>1</v>
       </c>
       <c r="G103" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L103" s="1" t="s">
         <v>57</v>
@@ -12307,13 +12306,13 @@
         <v>96</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>30</v>
@@ -12322,19 +12321,19 @@
         <v>1</v>
       </c>
       <c r="G104" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>57</v>
@@ -12353,10 +12352,10 @@
         <v>97</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>30</v>
@@ -12365,19 +12364,19 @@
         <v>1</v>
       </c>
       <c r="G105" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L105" s="1" t="s">
         <v>57</v>
@@ -12396,10 +12395,10 @@
         <v>98</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>30</v>
@@ -12408,19 +12407,19 @@
         <v>1</v>
       </c>
       <c r="G106" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L106" s="1" t="s">
         <v>57</v>
@@ -12439,13 +12438,13 @@
         <v>99</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>63</v>
@@ -12454,19 +12453,19 @@
         <v>1</v>
       </c>
       <c r="G107" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L107" s="1" t="s">
         <v>57</v>
@@ -12485,10 +12484,10 @@
         <v>100</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>30</v>
@@ -12497,19 +12496,19 @@
         <v>1</v>
       </c>
       <c r="G108" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L108" s="1" t="s">
         <v>57</v>
@@ -12528,10 +12527,10 @@
         <v>101</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>30</v>
@@ -12540,19 +12539,19 @@
         <v>1</v>
       </c>
       <c r="G109" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L109" s="1" t="s">
         <v>57</v>
@@ -12571,13 +12570,13 @@
         <v>102</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>13</v>
@@ -12586,19 +12585,19 @@
         <v>1</v>
       </c>
       <c r="G110" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L110" s="1" t="s">
         <v>57</v>
@@ -12617,10 +12616,10 @@
         <v>103</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>30</v>
@@ -12629,19 +12628,19 @@
         <v>1</v>
       </c>
       <c r="G111" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>57</v>
@@ -12660,10 +12659,10 @@
         <v>104</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>30</v>
@@ -12672,19 +12671,19 @@
         <v>1</v>
       </c>
       <c r="G112" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>57</v>
@@ -12703,13 +12702,13 @@
         <v>105</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>30</v>
@@ -12718,19 +12717,19 @@
         <v>1</v>
       </c>
       <c r="G113" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>57</v>
@@ -12749,10 +12748,10 @@
         <v>106</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>30</v>
@@ -12761,19 +12760,19 @@
         <v>1</v>
       </c>
       <c r="G114" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>57</v>
@@ -12792,10 +12791,10 @@
         <v>107</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>30</v>
@@ -12804,19 +12803,19 @@
         <v>1</v>
       </c>
       <c r="G115" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>57</v>
@@ -12835,10 +12834,10 @@
         <v>108</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>30</v>
@@ -12847,19 +12846,19 @@
         <v>1</v>
       </c>
       <c r="G116" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L116" s="1" t="s">
         <v>57</v>
@@ -12878,10 +12877,10 @@
         <v>109</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>30</v>
@@ -12890,19 +12889,19 @@
         <v>1</v>
       </c>
       <c r="G117" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="J117" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H117" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="K117" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L117" s="1" t="s">
         <v>57</v>
@@ -12921,10 +12920,10 @@
         <v>110</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>30</v>
@@ -12933,13 +12932,13 @@
         <v>1</v>
       </c>
       <c r="G118" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>61</v>
@@ -12961,7 +12960,7 @@
         <v>111</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>128</v>
@@ -12973,19 +12972,19 @@
         <v>1</v>
       </c>
       <c r="G119" s="36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H119" t="s">
         <v>57</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J119" t="s">
         <v>58</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>57</v>
@@ -13003,13 +13002,13 @@
         <v>112</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>13</v>
@@ -13018,19 +13017,19 @@
         <v>1</v>
       </c>
       <c r="G120" s="36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L120" s="1" t="s">
         <v>57</v>
@@ -13049,13 +13048,13 @@
         <v>113</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>30</v>
@@ -13064,19 +13063,19 @@
         <v>1</v>
       </c>
       <c r="G121" s="36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L121" s="1" t="s">
         <v>57</v>
@@ -13095,10 +13094,10 @@
         <v>114</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>30</v>
@@ -13107,19 +13106,19 @@
         <v>1</v>
       </c>
       <c r="G122" s="36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L122" s="1" t="s">
         <v>57</v>
@@ -13138,13 +13137,13 @@
         <v>115</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>30</v>
@@ -13153,19 +13152,19 @@
         <v>1</v>
       </c>
       <c r="G123" s="36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L123" s="1" t="s">
         <v>57</v>
@@ -13184,13 +13183,13 @@
         <v>116</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>63</v>
@@ -13199,19 +13198,19 @@
         <v>1</v>
       </c>
       <c r="G124" s="36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L124" s="1" t="s">
         <v>57</v>
@@ -13230,10 +13229,10 @@
         <v>117</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>30</v>
@@ -13242,19 +13241,19 @@
         <v>1</v>
       </c>
       <c r="G125" s="36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L125" s="1" t="s">
         <v>57</v>
@@ -13273,10 +13272,10 @@
         <v>118</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>30</v>
@@ -13285,19 +13284,19 @@
         <v>1</v>
       </c>
       <c r="G126" s="36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L126" s="1" t="s">
         <v>57</v>
@@ -13316,13 +13315,13 @@
         <v>119</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>13</v>
@@ -13331,19 +13330,19 @@
         <v>1</v>
       </c>
       <c r="G127" s="36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L127" s="1" t="s">
         <v>57</v>
@@ -13362,13 +13361,13 @@
         <v>120</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>30</v>
@@ -13377,19 +13376,19 @@
         <v>1</v>
       </c>
       <c r="G128" s="36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>57</v>
@@ -13408,13 +13407,13 @@
         <v>121</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>30</v>
@@ -13423,19 +13422,19 @@
         <v>1</v>
       </c>
       <c r="G129" s="36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L129" s="1" t="s">
         <v>57</v>
@@ -13454,10 +13453,10 @@
         <v>122</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>30</v>
@@ -13466,19 +13465,19 @@
         <v>1</v>
       </c>
       <c r="G130" s="36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L130" s="1" t="s">
         <v>57</v>
@@ -13497,13 +13496,13 @@
         <v>123</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>30</v>
@@ -13512,19 +13511,19 @@
         <v>1</v>
       </c>
       <c r="G131" s="36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L131" s="1" t="s">
         <v>57</v>
@@ -13543,7 +13542,7 @@
         <v>124</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>128</v>
@@ -13555,19 +13554,19 @@
         <v>1</v>
       </c>
       <c r="G132" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J132" t="s">
         <v>58</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L132" s="1" t="s">
         <v>57</v>
@@ -13585,10 +13584,10 @@
         <v>125</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>30</v>
@@ -13597,19 +13596,19 @@
         <v>1</v>
       </c>
       <c r="G133" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L133" s="1" t="s">
         <v>57</v>
@@ -13628,7 +13627,7 @@
         <v>126</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>73</v>
@@ -13640,19 +13639,19 @@
         <v>1</v>
       </c>
       <c r="G134" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>57</v>
@@ -13671,13 +13670,13 @@
         <v>127</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>63</v>
@@ -13686,19 +13685,19 @@
         <v>1</v>
       </c>
       <c r="G135" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>57</v>
@@ -13717,10 +13716,10 @@
         <v>128</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>63</v>
@@ -13729,19 +13728,19 @@
         <v>1</v>
       </c>
       <c r="G136" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>57</v>
@@ -13760,13 +13759,13 @@
         <v>129</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>13</v>
@@ -13775,19 +13774,19 @@
         <v>1</v>
       </c>
       <c r="G137" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L137" s="1" t="s">
         <v>57</v>
@@ -13806,10 +13805,10 @@
         <v>130</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>30</v>
@@ -13818,19 +13817,19 @@
         <v>1</v>
       </c>
       <c r="G138" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L138" s="1" t="s">
         <v>57</v>
@@ -13849,10 +13848,10 @@
         <v>131</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>30</v>
@@ -13861,19 +13860,19 @@
         <v>1</v>
       </c>
       <c r="G139" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L139" s="1" t="s">
         <v>57</v>
@@ -13892,10 +13891,10 @@
         <v>132</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>30</v>
@@ -13904,19 +13903,19 @@
         <v>1</v>
       </c>
       <c r="G140" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L140" s="1" t="s">
         <v>57</v>
@@ -13935,7 +13934,7 @@
         <v>133</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>128</v>
@@ -13947,19 +13946,19 @@
         <v>1</v>
       </c>
       <c r="G141" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J141" t="s">
         <v>58</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L141" s="1" t="s">
         <v>57</v>
@@ -13977,10 +13976,10 @@
         <v>134</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>30</v>
@@ -13989,19 +13988,19 @@
         <v>1</v>
       </c>
       <c r="G142" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L142" s="1" t="s">
         <v>57</v>
@@ -14020,13 +14019,13 @@
         <v>135</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>30</v>
@@ -14035,19 +14034,19 @@
         <v>1</v>
       </c>
       <c r="G143" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L143" s="1" t="s">
         <v>57</v>
@@ -14066,13 +14065,13 @@
         <v>136</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>30</v>
@@ -14081,19 +14080,19 @@
         <v>1</v>
       </c>
       <c r="G144" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L144" s="1" t="s">
         <v>57</v>
@@ -14112,13 +14111,13 @@
         <v>137</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>30</v>
@@ -14127,19 +14126,19 @@
         <v>1</v>
       </c>
       <c r="G145" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L145" s="1" t="s">
         <v>57</v>
@@ -14158,13 +14157,13 @@
         <v>138</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>30</v>
@@ -14173,19 +14172,19 @@
         <v>1</v>
       </c>
       <c r="G146" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L146" s="1" t="s">
         <v>57</v>
@@ -14204,13 +14203,13 @@
         <v>139</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>30</v>
@@ -14219,19 +14218,19 @@
         <v>1</v>
       </c>
       <c r="G147" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L147" s="1" t="s">
         <v>57</v>
@@ -14250,13 +14249,13 @@
         <v>140</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>30</v>
@@ -14265,19 +14264,19 @@
         <v>1</v>
       </c>
       <c r="G148" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L148" s="1" t="s">
         <v>57</v>
@@ -14296,13 +14295,13 @@
         <v>141</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>63</v>
@@ -14311,19 +14310,19 @@
         <v>1</v>
       </c>
       <c r="G149" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L149" s="1" t="s">
         <v>57</v>
@@ -14342,13 +14341,13 @@
         <v>142</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>63</v>
@@ -14357,19 +14356,19 @@
         <v>1</v>
       </c>
       <c r="G150" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L150" s="1" t="s">
         <v>57</v>
@@ -14388,13 +14387,13 @@
         <v>143</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>63</v>
@@ -14403,19 +14402,19 @@
         <v>1</v>
       </c>
       <c r="G151" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L151" s="1" t="s">
         <v>57</v>
@@ -14434,13 +14433,13 @@
         <v>144</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>63</v>
@@ -14449,19 +14448,19 @@
         <v>1</v>
       </c>
       <c r="G152" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L152" s="1" t="s">
         <v>57</v>
@@ -14480,13 +14479,13 @@
         <v>145</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>63</v>
@@ -14495,19 +14494,19 @@
         <v>1</v>
       </c>
       <c r="G153" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L153" s="1" t="s">
         <v>57</v>
@@ -14526,13 +14525,13 @@
         <v>146</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>13</v>
@@ -14541,19 +14540,19 @@
         <v>1</v>
       </c>
       <c r="G154" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L154" s="1" t="s">
         <v>57</v>
@@ -14572,13 +14571,13 @@
         <v>147</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>63</v>
@@ -14587,19 +14586,19 @@
         <v>1</v>
       </c>
       <c r="G155" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L155" s="1" t="s">
         <v>57</v>
@@ -14618,13 +14617,13 @@
         <v>148</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>30</v>
@@ -14633,19 +14632,19 @@
         <v>1</v>
       </c>
       <c r="G156" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L156" s="1" t="s">
         <v>57</v>
@@ -14664,13 +14663,13 @@
         <v>149</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>13</v>
@@ -14679,19 +14678,19 @@
         <v>1</v>
       </c>
       <c r="G157" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L157" s="1" t="s">
         <v>57</v>
@@ -14710,13 +14709,13 @@
         <v>150</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>63</v>
@@ -14725,19 +14724,19 @@
         <v>1</v>
       </c>
       <c r="G158" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L158" s="1" t="s">
         <v>57</v>
@@ -14756,7 +14755,7 @@
         <v>151</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>128</v>
@@ -14768,19 +14767,19 @@
         <v>1</v>
       </c>
       <c r="G159" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J159" t="s">
         <v>58</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L159" s="1" t="s">
         <v>57</v>
@@ -14798,10 +14797,10 @@
         <v>152</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>63</v>
@@ -14810,19 +14809,19 @@
         <v>1</v>
       </c>
       <c r="G160" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L160" s="1" t="s">
         <v>57</v>
@@ -14841,10 +14840,10 @@
         <v>153</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>13</v>
@@ -14853,19 +14852,19 @@
         <v>1</v>
       </c>
       <c r="G161" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L161" s="1" t="s">
         <v>57</v>
@@ -14884,7 +14883,7 @@
         <v>154</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>73</v>
@@ -14896,19 +14895,19 @@
         <v>1</v>
       </c>
       <c r="G162" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L162" s="1" t="s">
         <v>57</v>
@@ -14927,10 +14926,10 @@
         <v>155</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>13</v>
@@ -14939,19 +14938,19 @@
         <v>1</v>
       </c>
       <c r="G163" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L163" s="1" t="s">
         <v>57</v>
@@ -14970,10 +14969,10 @@
         <v>156</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>30</v>
@@ -14982,19 +14981,19 @@
         <v>1</v>
       </c>
       <c r="G164" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L164" s="1" t="s">
         <v>57</v>
@@ -15013,13 +15012,13 @@
         <v>157</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>30</v>
@@ -15028,19 +15027,19 @@
         <v>1</v>
       </c>
       <c r="G165" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L165" s="1" t="s">
         <v>57</v>
@@ -15059,13 +15058,13 @@
         <v>158</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>63</v>
@@ -15074,19 +15073,19 @@
         <v>1</v>
       </c>
       <c r="G166" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L166" s="1" t="s">
         <v>57</v>
@@ -15105,10 +15104,10 @@
         <v>159</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>30</v>
@@ -15117,19 +15116,19 @@
         <v>1</v>
       </c>
       <c r="G167" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L167" s="1" t="s">
         <v>57</v>
@@ -15148,13 +15147,13 @@
         <v>160</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>13</v>
@@ -15163,19 +15162,19 @@
         <v>1</v>
       </c>
       <c r="G168" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L168" s="1" t="s">
         <v>57</v>
@@ -15194,10 +15193,10 @@
         <v>161</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>13</v>
@@ -15206,19 +15205,19 @@
         <v>1</v>
       </c>
       <c r="G169" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L169" s="1" t="s">
         <v>57</v>
@@ -15237,10 +15236,10 @@
         <v>162</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>13</v>
@@ -15249,19 +15248,19 @@
         <v>1</v>
       </c>
       <c r="G170" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L170" s="1" t="s">
         <v>57</v>
@@ -15280,10 +15279,10 @@
         <v>163</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>63</v>
@@ -15292,19 +15291,19 @@
         <v>1</v>
       </c>
       <c r="G171" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L171" s="1" t="s">
         <v>57</v>
@@ -15323,10 +15322,10 @@
         <v>164</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>30</v>
@@ -15335,19 +15334,19 @@
         <v>1</v>
       </c>
       <c r="G172" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L172" s="1" t="s">
         <v>57</v>
@@ -15366,10 +15365,10 @@
         <v>165</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>30</v>
@@ -15378,19 +15377,19 @@
         <v>1</v>
       </c>
       <c r="G173" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L173" s="1" t="s">
         <v>57</v>
@@ -15409,13 +15408,13 @@
         <v>166</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>30</v>
@@ -15424,19 +15423,19 @@
         <v>1</v>
       </c>
       <c r="G174" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L174" s="1" t="s">
         <v>57</v>
@@ -15455,7 +15454,7 @@
         <v>167</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>128</v>
@@ -15467,19 +15466,19 @@
         <v>1</v>
       </c>
       <c r="G175" s="37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J175" t="s">
         <v>58</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L175" s="1" t="s">
         <v>57</v>
@@ -15497,10 +15496,10 @@
         <v>168</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>63</v>
@@ -15509,19 +15508,19 @@
         <v>1</v>
       </c>
       <c r="G176" s="37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L176" s="1" t="s">
         <v>57</v>
@@ -15540,10 +15539,10 @@
         <v>169</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>30</v>
@@ -15552,19 +15551,19 @@
         <v>1</v>
       </c>
       <c r="G177" s="37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L177" s="1" t="s">
         <v>57</v>
@@ -15583,10 +15582,10 @@
         <v>170</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>30</v>
@@ -15595,19 +15594,19 @@
         <v>1</v>
       </c>
       <c r="G178" s="37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L178" s="1" t="s">
         <v>57</v>
@@ -15626,10 +15625,10 @@
         <v>171</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>30</v>
@@ -15638,19 +15637,19 @@
         <v>1</v>
       </c>
       <c r="G179" s="37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L179" s="1" t="s">
         <v>57</v>
@@ -15669,10 +15668,10 @@
         <v>172</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>30</v>
@@ -15681,19 +15680,19 @@
         <v>1</v>
       </c>
       <c r="G180" s="37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L180" s="1" t="s">
         <v>57</v>
@@ -15712,13 +15711,13 @@
         <v>173</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>30</v>
@@ -15727,19 +15726,19 @@
         <v>1</v>
       </c>
       <c r="G181" s="37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L181" s="1" t="s">
         <v>57</v>
@@ -15758,10 +15757,10 @@
         <v>174</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>30</v>
@@ -15770,19 +15769,19 @@
         <v>1</v>
       </c>
       <c r="G182" s="37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L182" s="1" t="s">
         <v>57</v>
@@ -15801,10 +15800,10 @@
         <v>175</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>30</v>
@@ -15813,19 +15812,19 @@
         <v>1</v>
       </c>
       <c r="G183" s="37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L183" s="1" t="s">
         <v>57</v>
@@ -15844,10 +15843,10 @@
         <v>176</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>63</v>
@@ -15856,19 +15855,19 @@
         <v>1</v>
       </c>
       <c r="G184" s="37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L184" s="1" t="s">
         <v>57</v>
@@ -15887,10 +15886,10 @@
         <v>177</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>30</v>
@@ -15899,19 +15898,19 @@
         <v>1</v>
       </c>
       <c r="G185" s="37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L185" s="1" t="s">
         <v>57</v>
@@ -15945,13 +15944,13 @@
         <v>57</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J186" t="s">
         <v>58</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L186" s="1" t="s">
         <v>57</v>
@@ -15972,7 +15971,7 @@
         <v>84</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>30</v>
@@ -15984,13 +15983,13 @@
         <v>57</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J187" t="s">
         <v>58</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L187" s="1" t="s">
         <v>57</v>
@@ -16014,7 +16013,7 @@
         <v>66</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>30</v>
@@ -16026,13 +16025,13 @@
         <v>57</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J188" t="s">
         <v>61</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L188" s="1" t="s">
         <v>57</v>
@@ -16053,10 +16052,10 @@
         <v>84</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>30</v>
@@ -16068,13 +16067,13 @@
         <v>57</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J189" t="s">
         <v>61</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L189" s="1" t="s">
         <v>57</v>
@@ -16095,10 +16094,10 @@
         <v>84</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>30</v>
@@ -16110,13 +16109,13 @@
         <v>57</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J190" t="s">
         <v>61</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L190" s="1" t="s">
         <v>57</v>
@@ -16137,10 +16136,10 @@
         <v>84</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>30</v>
@@ -16152,13 +16151,13 @@
         <v>57</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J191" t="s">
         <v>61</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L191" s="1" t="s">
         <v>57</v>
@@ -16179,10 +16178,10 @@
         <v>84</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>30</v>
@@ -16194,13 +16193,13 @@
         <v>57</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J192" t="s">
         <v>61</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L192" s="1" t="s">
         <v>57</v>
@@ -16221,10 +16220,10 @@
         <v>84</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>30</v>
@@ -16236,13 +16235,13 @@
         <v>57</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J193" t="s">
         <v>58</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L193" s="1" t="s">
         <v>57</v>
@@ -16263,7 +16262,7 @@
         <v>84</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>30</v>
@@ -16275,13 +16274,13 @@
         <v>57</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J194" t="s">
         <v>69</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L194" s="1" t="s">
         <v>57</v>
@@ -16305,7 +16304,7 @@
         <v>129</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>30</v>
@@ -16317,13 +16316,13 @@
         <v>57</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J195" t="s">
         <v>58</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L195" s="1" t="s">
         <v>57</v>
@@ -16347,7 +16346,7 @@
         <v>23</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>30</v>
@@ -16359,13 +16358,13 @@
         <v>57</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J196" t="s">
         <v>61</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L196" s="1" t="s">
         <v>57</v>
@@ -16386,7 +16385,7 @@
         <v>84</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>30</v>
@@ -16398,13 +16397,13 @@
         <v>57</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J197" t="s">
         <v>69</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L197" s="1" t="s">
         <v>57</v>
@@ -16425,10 +16424,10 @@
         <v>84</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>30</v>
@@ -16440,13 +16439,13 @@
         <v>57</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J198" t="s">
         <v>61</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L198" s="1" t="s">
         <v>57</v>
@@ -16470,7 +16469,7 @@
         <v>14</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>30</v>
@@ -16482,13 +16481,13 @@
         <v>57</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J199" t="s">
         <v>58</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L199" s="1" t="s">
         <v>57</v>
@@ -16507,8 +16506,11 @@
     <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="22" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="AC17" r:id="rId1" xr:uid="{CEB9033D-FE30-994C-8BD6-1FD41F0F7439}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>